--- a/backend/api/v1/v1_jobs/tests/fixtures/test-error-dependency.xlsx
+++ b/backend/api/v1/v1_jobs/tests/fixtures/test-error-dependency.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="questions" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="options" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="data" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="questions" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="options" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -48,12 +48,6 @@
     <t xml:space="preserve">geolocation</t>
   </si>
   <si>
-    <t xml:space="preserve">submission_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reg_or_update</t>
-  </si>
-  <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
@@ -81,15 +75,9 @@
     <t xml:space="preserve">decimal</t>
   </si>
   <si>
-    <t xml:space="preserve">meta_uuid</t>
-  </si>
-  <si>
     <t xml:space="preserve">multiple_of_two</t>
   </si>
   <si>
-    <t xml:space="preserve">verification</t>
-  </si>
-  <si>
     <t xml:space="preserve">do_you_have_pets</t>
   </si>
   <si>
@@ -105,12 +93,6 @@
     <t xml:space="preserve">-8.6384108|116.2469499</t>
   </si>
   <si>
-    <t xml:space="preserve">registration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new</t>
-  </si>
-  <si>
     <t xml:space="preserve">John Doe</t>
   </si>
   <si>
@@ -129,9 +111,6 @@
     <t xml:space="preserve">2024-01-31</t>
   </si>
   <si>
-    <t xml:space="preserve">6bf1c83f-b596-458f-be04-73015104d8d0</t>
-  </si>
-  <si>
     <t xml:space="preserve">no</t>
   </si>
   <si>
@@ -147,9 +126,6 @@
     <t xml:space="preserve">children</t>
   </si>
   <si>
-    <t xml:space="preserve">6bf1c83f-b596-458f-be04-73015104d8d2</t>
-  </si>
-  <si>
     <t xml:space="preserve">yes</t>
   </si>
   <si>
@@ -225,18 +201,12 @@
     <t xml:space="preserve">NO</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta UUID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Multiple of 2</t>
   </si>
   <si>
     <t xml:space="preserve">Autofield</t>
   </si>
   <si>
-    <t xml:space="preserve">Do you verify the claim?</t>
-  </si>
-  <si>
     <t xml:space="preserve">question</t>
   </si>
   <si>
@@ -268,12 +238,6 @@
   </si>
   <si>
     <t xml:space="preserve">Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
   </si>
 </sst>
 </file>
@@ -365,20 +329,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -394,214 +362,290 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X1048576"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="17.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16381" min="16381" style="1" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16382" min="16382" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="10.16"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0" t="n">
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="K3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="P3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="Q3" s="1" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="0" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="https://fastly.picsum.photos/id/808/200/300.jpg?hmac=Kyj9_KH7mvVdj6C03HH9933R2yKWSwQHGtqkeaTLCAM"/>
-    <hyperlink ref="Q3" r:id="rId2" display="https://fastly.picsum.photos/id/808/200/300.jpg?hmac=Kyj9_KH7mvVdj6C03HH9933R2yKWSwQHGtqkeaTLCAM"/>
+    <hyperlink ref="O2" r:id="rId1" display="https://fastly.picsum.photos/id/808/200/300.jpg?hmac=Kyj9_KH7mvVdj6C03HH9933R2yKWSwQHGtqkeaTLCAM"/>
+    <hyperlink ref="O3" r:id="rId2" display="https://fastly.picsum.photos/id/808/200/300.jpg?hmac=Kyj9_KH7mvVdj6C03HH9933R2yKWSwQHGtqkeaTLCAM"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -614,206 +658,180 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -826,117 +844,97 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
